--- a/ATRX.xlsx
+++ b/ATRX.xlsx
@@ -74,7 +74,7 @@
     <t>Equity income in investee</t>
   </si>
   <si>
-    <t>Extraordinary Gain</t>
+    <t>Miscellaneous</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>76186</v>
+        <v>76000</v>
       </c>
       <c r="C2" s="3">
         <v>252000</v>
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>458708</v>
+        <v>284000</v>
       </c>
       <c r="C3" s="3">
         <v>409000</v>
@@ -811,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>240982</v>
+        <v>241000</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>9665222</v>
+        <v>9840000</v>
       </c>
       <c r="C6" s="3">
         <v>9973000</v>
@@ -861,7 +861,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>5506112</v>
+        <v>5506000</v>
       </c>
       <c r="C7" s="3">
         <v>1186000</v>
@@ -1172,7 +1172,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>-960119</v>
+        <v>-960000</v>
       </c>
       <c r="C13" s="3">
         <v>20000</v>
@@ -1477,8 +1477,12 @@
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1598,7 +1602,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2590</v>
+        <v>3000</v>
       </c>
       <c r="C24" s="3">
         <v>12000</v>
@@ -1629,7 +1633,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>1445138</v>
+        <v>1445000</v>
       </c>
       <c r="C25" s="3">
         <v>765000</v>
@@ -1660,7 +1664,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>5695796</v>
+        <v>5696000</v>
       </c>
       <c r="C26" s="3">
         <v>2463000</v>
@@ -1771,7 +1775,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>74364</v>
+        <v>74000</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -2396,7 +2400,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="3">
-        <v>71774</v>
+        <v>72000</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
@@ -2427,7 +2431,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="3">
-        <v>5140845</v>
+        <v>5141000</v>
       </c>
       <c r="C39" s="3">
         <v>420000</v>
@@ -2458,13 +2462,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="3">
-        <v>2214126</v>
+        <v>2214000</v>
       </c>
       <c r="C40" s="3">
         <v>10307000</v>
       </c>
       <c r="D40" s="3">
-        <v>14774000</v>
+        <v>14741000</v>
       </c>
       <c r="E40" s="3">
         <v>25302000</v>
